--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1127449.223939914</v>
+        <v>1120101.587449966</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8449809.474284522</v>
+        <v>9225685.419344153</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10661324.58824435</v>
+        <v>10603109.24815811</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>280.8271718685256</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>1.332908225377307</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>155.5509599380552</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0900949779775</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>166.4150278389808</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>83.58354151325328</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>202.7120942205307</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>363.2679596979871</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>12.93061300371907</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>16.34595184327254</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>214.3695097109488</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>65.37618332860043</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>243.2391485592445</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>42.86209348694693</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>52.23490948285976</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1585,13 +1585,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>107.0120291964077</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>65.37618332859954</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492336</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>52.23490948285925</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,16 +1847,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>199.7325946875369</v>
       </c>
       <c r="U17" t="n">
-        <v>173.5578851713656</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>34.43605357443306</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>203.1977700471489</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247655</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>6.380068175847184</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>176.7697821123577</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0955237083895</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247655</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>142.6955872305729</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247655</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>206.285089532154</v>
       </c>
       <c r="W31" t="n">
-        <v>203.1977700471487</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>59.90320919298799</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>77.31354443380407</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>39.56208598866523</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -3326,13 +3326,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>125.7501873541273</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247644</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>52.23490948285925</v>
+        <v>79.49219230501865</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>282.1244423374946</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>89.61495056451022</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492339</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>194.03399722329</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>200.9166277000908</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3755,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>323.7013721104204</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928482</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.23490948285909</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3977,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>165.0720827255481</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>175.5913150440816</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247697</v>
+        <v>18.81721868247698</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>42.86209348694625</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4153,7 +4153,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>13.33835225137371</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.175505447095</v>
+        <v>1628.293017861605</v>
       </c>
       <c r="C2" t="n">
-        <v>825.2129885066831</v>
+        <v>1628.293017861605</v>
       </c>
       <c r="D2" t="n">
-        <v>825.2129885066831</v>
+        <v>1270.027319254855</v>
       </c>
       <c r="E2" t="n">
-        <v>825.2129885066831</v>
+        <v>884.2390666566107</v>
       </c>
       <c r="F2" t="n">
-        <v>818.2674877574797</v>
+        <v>473.2531618670031</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>55.28935376519001</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>55.28935376519001</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.775345511217</v>
+        <v>2014.892857925727</v>
       </c>
     </row>
     <row r="3">
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.798971477663</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.798971477663</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551155</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1240.282366980295</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1240.282366980295</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999326</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="E5" t="n">
-        <v>466.9472898999326</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,25 +4565,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2151.286341942363</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1798.517686672249</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1630.421698956107</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1240.282366980295</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,49 +4647,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>667.4695073176202</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>667.4695073176202</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>369.4397743228914</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U7" t="n">
-        <v>643.7011644960776</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>849.11797214786</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>849.11797214786</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>849.11797214786</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>2000.256323148255</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1631.293806207844</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>1631.293806207844</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>1245.505553609599</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>834.519648819992</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>418.9265767457143</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L8" t="n">
-        <v>785.3786496953994</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2684.087865761941</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2684.087865761941</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2353.02497841837</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2000.256323148255</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2000.256323148255</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>2000.256323148255</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>430.5099695256628</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>737.9293675700346</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1116.030173223836</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1518.54682704498</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>1864.551132081293</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2438.195165861565</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.3671378707096</v>
+        <v>772.5279132382127</v>
       </c>
       <c r="C10" t="n">
-        <v>218.3671378707096</v>
+        <v>603.5917303103058</v>
       </c>
       <c r="D10" t="n">
-        <v>218.3671378707096</v>
+        <v>453.4750908979701</v>
       </c>
       <c r="E10" t="n">
-        <v>70.45404428831651</v>
+        <v>453.4750908979701</v>
       </c>
       <c r="F10" t="n">
-        <v>70.45404428831651</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="G10" t="n">
-        <v>70.45404428831651</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="H10" t="n">
-        <v>70.45404428831651</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T10" t="n">
-        <v>620.8081818444795</v>
+        <v>1471.281534008278</v>
       </c>
       <c r="U10" t="n">
-        <v>620.8081818444795</v>
+        <v>1182.16592896647</v>
       </c>
       <c r="V10" t="n">
-        <v>620.8081818444795</v>
+        <v>1182.16592896647</v>
       </c>
       <c r="W10" t="n">
-        <v>620.8081818444795</v>
+        <v>1182.16592896647</v>
       </c>
       <c r="X10" t="n">
-        <v>620.8081818444795</v>
+        <v>954.1763780684524</v>
       </c>
       <c r="Y10" t="n">
-        <v>400.0156027009493</v>
+        <v>954.1763780684524</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,37 +5051,37 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.60582160917</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y11" t="n">
         <v>2689.770379977556</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8175152271517</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8175152271517</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>362.8175152271517</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>362.8175152271517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>362.8175152271517</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5233,16 +5233,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271517</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1340.243929312809</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2689.770379977556</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2689.770379977556</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2689.770379977556</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>2689.770379977556</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5361,46 +5361,46 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>362.8175152271513</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>362.8175152271513</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>362.8175152271513</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>362.8175152271513</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>362.8175152271513</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5479,7 +5479,7 @@
         <v>362.8175152271513</v>
       </c>
       <c r="Y16" t="n">
-        <v>362.8175152271513</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1647.321240915451</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C17" t="n">
-        <v>1278.358723975039</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5528,37 +5528,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="U17" t="n">
-        <v>3150.294826486578</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V17" t="n">
-        <v>3150.294826486578</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W17" t="n">
-        <v>2797.526171216464</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.060412955384</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y17" t="n">
-        <v>2033.921080979572</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>659.431657018599</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>659.431657018599</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>659.431657018599</v>
       </c>
       <c r="E19" t="n">
         <v>624.6477645191717</v>
@@ -5668,7 +5668,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1927.294548088492</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.044275313594</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>659.431657018599</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839441</v>
@@ -5753,19 +5753,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>932.5990189467743</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L20" t="n">
-        <v>1797.117834600129</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2330.649739272053</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330835</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107236</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
@@ -5853,28 +5853,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>270.9417306852379</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C22" t="n">
-        <v>102.005547757331</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5938,22 +5938,22 @@
         <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>1701.658977898816</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570251</v>
+        <v>1701.658977898816</v>
       </c>
       <c r="X22" t="n">
-        <v>673.3827746590077</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.5901955154776</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="23">
@@ -5978,46 +5978,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973187</v>
+        <v>3154.542034367489</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161917</v>
+        <v>2980.089005086362</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549405</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549485</v>
+        <v>2671.917140419655</v>
       </c>
       <c r="F24" t="n">
-        <v>341.43332057637</v>
+        <v>2525.38258244654</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089881</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468556</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313402</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317988</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216075</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487873</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.517670152511</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387557</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3942.370854773037</v>
+        <v>3086.205473691319</v>
       </c>
       <c r="C25" t="n">
-        <v>3773.43467184513</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D25" t="n">
-        <v>3623.318032432794</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E25" t="n">
-        <v>3475.404938850401</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.514991352491</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727209</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945067</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.051722419721</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T25" t="n">
-        <v>4778.051722419721</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U25" t="n">
-        <v>4778.051722419721</v>
+        <v>3985.665898699243</v>
       </c>
       <c r="V25" t="n">
-        <v>4778.051722419721</v>
+        <v>3730.981410493357</v>
       </c>
       <c r="W25" t="n">
-        <v>4572.801449644823</v>
+        <v>3441.564240456396</v>
       </c>
       <c r="X25" t="n">
-        <v>4344.811898746806</v>
+        <v>3213.574689558379</v>
       </c>
       <c r="Y25" t="n">
-        <v>4124.019319603276</v>
+        <v>3086.205473691319</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6212,64 +6212,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>360.1279170711155</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1014.851249206415</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1465.885462454823</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>1999.417367126748</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973187</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161917</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549405</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549485</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F27" t="n">
-        <v>341.43332057637</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089881</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468556</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>2978.149925102191</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324507</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>3898.949293878962</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2917.269290763412</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>2917.269290763412</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>2917.269290763412</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>2917.269290763412</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>2917.269290763412</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>4274.7687655736</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U28" t="n">
-        <v>3985.665898699243</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>3730.981410493357</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W28" t="n">
-        <v>3441.564240456396</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="X28" t="n">
-        <v>3213.574689558379</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y28" t="n">
-        <v>2992.782110414849</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1460.488316778687</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M29" t="n">
-        <v>2439.038619608516</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>2985.817436667297</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996752</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390117</v>
@@ -6555,37 +6555,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>3328.514991352491</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>3328.514991352491</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>3328.514991352491</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>3328.514991352491</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>3328.514991352491</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104703</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104703</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V31" t="n">
-        <v>1956.343466104703</v>
+        <v>3777.297121394038</v>
       </c>
       <c r="W31" t="n">
-        <v>1751.093193329805</v>
+        <v>3777.297121394038</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.103642431788</v>
+        <v>3549.307570496021</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>3328.514991352491</v>
       </c>
     </row>
     <row r="32">
@@ -6713,7 +6713,7 @@
         <v>2883.99303492678</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>3763.957685256235</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107236</v>
@@ -6789,13 +6789,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3314.416602430729</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C34" t="n">
-        <v>3145.480419502822</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D34" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>4778.05172241972</v>
+        <v>1878.248976777628</v>
       </c>
       <c r="U34" t="n">
-        <v>4488.948855545364</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="V34" t="n">
-        <v>4234.264367339477</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W34" t="n">
-        <v>3944.847197302516</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X34" t="n">
-        <v>3716.857646404499</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y34" t="n">
-        <v>3496.065067260969</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1745.759626099227</v>
+        <v>2361.647222078357</v>
       </c>
       <c r="C35" t="n">
-        <v>1376.797109158816</v>
+        <v>1992.684705137945</v>
       </c>
       <c r="D35" t="n">
-        <v>1336.835406139962</v>
+        <v>1634.419006531195</v>
       </c>
       <c r="E35" t="n">
-        <v>951.0471535417178</v>
+        <v>1248.63075393295</v>
       </c>
       <c r="F35" t="n">
-        <v>540.0612487521103</v>
+        <v>837.644849143343</v>
       </c>
       <c r="G35" t="n">
-        <v>124.9887985971068</v>
+        <v>422.5723989883395</v>
       </c>
       <c r="H35" t="n">
-        <v>124.9887985971068</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="I35" t="n">
-        <v>82.99189983657546</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J35" t="n">
-        <v>271.8710307956009</v>
+        <v>439.2766798159539</v>
       </c>
       <c r="K35" t="n">
-        <v>605.6904044854473</v>
+        <v>884.4272294575833</v>
       </c>
       <c r="L35" t="n">
-        <v>1056.724617733856</v>
+        <v>1335.461442705992</v>
       </c>
       <c r="M35" t="n">
-        <v>2035.274920563684</v>
+        <v>1868.993347377916</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.053737622467</v>
+        <v>2415.772164436698</v>
       </c>
       <c r="O35" t="n">
-        <v>3447.51719715911</v>
+        <v>2918.744635316035</v>
       </c>
       <c r="P35" t="n">
-        <v>3842.291563516288</v>
+        <v>3632.099722762981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4090.57792527197</v>
+        <v>4090.577925271969</v>
       </c>
       <c r="R35" t="n">
         <v>4149.594991828772</v>
       </c>
       <c r="S35" t="n">
-        <v>4039.304323355867</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="T35" t="n">
-        <v>3833.32657574009</v>
+        <v>3833.326575740089</v>
       </c>
       <c r="U35" t="n">
-        <v>3579.796099013926</v>
+        <v>3579.796099013925</v>
       </c>
       <c r="V35" t="n">
-        <v>3248.733211670355</v>
+        <v>3248.733211670354</v>
       </c>
       <c r="W35" t="n">
-        <v>2895.964556400241</v>
+        <v>3248.733211670354</v>
       </c>
       <c r="X35" t="n">
-        <v>2522.498798139161</v>
+        <v>2875.267453409274</v>
       </c>
       <c r="Y35" t="n">
-        <v>2132.359466163349</v>
+        <v>2748.247062142479</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>958.0236378855008</v>
+        <v>2526.085303776538</v>
       </c>
       <c r="C36" t="n">
-        <v>783.5706086043738</v>
+        <v>2351.632274495411</v>
       </c>
       <c r="D36" t="n">
-        <v>634.6361989431225</v>
+        <v>2202.69786483416</v>
       </c>
       <c r="E36" t="n">
-        <v>475.3987439376669</v>
+        <v>2043.460409828705</v>
       </c>
       <c r="F36" t="n">
-        <v>328.8641859645519</v>
+        <v>1896.92585185559</v>
       </c>
       <c r="G36" t="n">
-        <v>192.50108579717</v>
+        <v>1760.562751688208</v>
       </c>
       <c r="H36" t="n">
-        <v>101.9991914350375</v>
+        <v>1670.060857326075</v>
       </c>
       <c r="I36" t="n">
-        <v>82.99189983657546</v>
+        <v>1651.053565727614</v>
       </c>
       <c r="J36" t="n">
-        <v>176.6691693271927</v>
+        <v>1744.730835218231</v>
       </c>
       <c r="K36" t="n">
-        <v>414.9333683075398</v>
+        <v>1982.995034198578</v>
       </c>
       <c r="L36" t="n">
-        <v>781.631528620205</v>
+        <v>2349.693194511244</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.907853842521</v>
+        <v>2796.96951973356</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.430897396975</v>
+        <v>3270.492563288014</v>
       </c>
       <c r="O36" t="n">
-        <v>2113.39217681503</v>
+        <v>3681.453842706069</v>
       </c>
       <c r="P36" t="n">
-        <v>2423.891768291132</v>
+        <v>3991.953434182172</v>
       </c>
       <c r="Q36" t="n">
-        <v>2581.533325937732</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="R36" t="n">
-        <v>2581.388972530248</v>
+        <v>4149.450638421286</v>
       </c>
       <c r="S36" t="n">
-        <v>2451.951086023728</v>
+        <v>4020.012751914766</v>
       </c>
       <c r="T36" t="n">
-        <v>2259.308085701584</v>
+        <v>3827.369751592622</v>
       </c>
       <c r="U36" t="n">
-        <v>2031.240238836</v>
+        <v>3599.301904727037</v>
       </c>
       <c r="V36" t="n">
-        <v>1796.088130604257</v>
+        <v>3364.149796495295</v>
       </c>
       <c r="W36" t="n">
-        <v>1541.850773876055</v>
+        <v>3109.912439767093</v>
       </c>
       <c r="X36" t="n">
-        <v>1333.999273670523</v>
+        <v>2902.06093956156</v>
       </c>
       <c r="Y36" t="n">
-        <v>1126.238974905569</v>
+        <v>2694.300640796606</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>379.2972986315433</v>
+        <v>2982.963567335452</v>
       </c>
       <c r="C37" t="n">
-        <v>379.2972986315433</v>
+        <v>2814.027384407545</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2972986315433</v>
+        <v>2663.910744995209</v>
       </c>
       <c r="E37" t="n">
-        <v>379.2972986315433</v>
+        <v>2515.997651412816</v>
       </c>
       <c r="F37" t="n">
-        <v>379.2972986315433</v>
+        <v>2369.107703914906</v>
       </c>
       <c r="G37" t="n">
-        <v>326.5347638003723</v>
+        <v>2288.812560172463</v>
       </c>
       <c r="H37" t="n">
-        <v>180.3175770182301</v>
+        <v>2288.812560172463</v>
       </c>
       <c r="I37" t="n">
-        <v>82.99189983657546</v>
+        <v>2288.812560172463</v>
       </c>
       <c r="J37" t="n">
-        <v>128.114532283511</v>
+        <v>2333.935192619398</v>
       </c>
       <c r="K37" t="n">
-        <v>332.1017152323873</v>
+        <v>2537.922375568274</v>
       </c>
       <c r="L37" t="n">
-        <v>648.6615136808834</v>
+        <v>2854.48217401677</v>
       </c>
       <c r="M37" t="n">
-        <v>992.8185592804324</v>
+        <v>3198.639219616319</v>
       </c>
       <c r="N37" t="n">
-        <v>1334.226935986297</v>
+        <v>3540.047596322184</v>
       </c>
       <c r="O37" t="n">
-        <v>1633.556534906711</v>
+        <v>3839.377195242597</v>
       </c>
       <c r="P37" t="n">
-        <v>1866.16403534037</v>
+        <v>4071.984695676257</v>
       </c>
       <c r="Q37" t="n">
-        <v>1943.774331492884</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="R37" t="n">
-        <v>1853.943874250412</v>
+        <v>4059.764534586299</v>
       </c>
       <c r="S37" t="n">
-        <v>1662.257990077239</v>
+        <v>3868.078650413126</v>
       </c>
       <c r="T37" t="n">
-        <v>1440.491374646765</v>
+        <v>3868.078650413126</v>
       </c>
       <c r="U37" t="n">
-        <v>1151.388507772408</v>
+        <v>3868.078650413126</v>
       </c>
       <c r="V37" t="n">
-        <v>896.7040195665212</v>
+        <v>3613.394162207239</v>
       </c>
       <c r="W37" t="n">
-        <v>607.2868495295606</v>
+        <v>3613.394162207239</v>
       </c>
       <c r="X37" t="n">
-        <v>379.2972986315433</v>
+        <v>3385.404611309222</v>
       </c>
       <c r="Y37" t="n">
-        <v>379.2972986315433</v>
+        <v>3164.612032165692</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7166,34 @@
         <v>422.5723989883395</v>
       </c>
       <c r="H38" t="n">
-        <v>124.9887985971068</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="I38" t="n">
-        <v>82.99189983657546</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J38" t="n">
-        <v>271.8710307956009</v>
+        <v>271.8710307956008</v>
       </c>
       <c r="K38" t="n">
-        <v>926.5943629309003</v>
+        <v>605.6904044854472</v>
       </c>
       <c r="L38" t="n">
-        <v>1791.113178584255</v>
+        <v>1056.724617733856</v>
       </c>
       <c r="M38" t="n">
-        <v>2324.645083256179</v>
+        <v>2035.274920563684</v>
       </c>
       <c r="N38" t="n">
-        <v>2871.423900314961</v>
+        <v>2944.544726279772</v>
       </c>
       <c r="O38" t="n">
-        <v>3447.51719715911</v>
+        <v>3447.517197159109</v>
       </c>
       <c r="P38" t="n">
-        <v>3842.291563516288</v>
+        <v>3842.291563516287</v>
       </c>
       <c r="Q38" t="n">
-        <v>4090.57792527197</v>
+        <v>4090.577925271969</v>
       </c>
       <c r="R38" t="n">
         <v>4149.594991828772</v>
@@ -7205,16 +7205,16 @@
         <v>4149.594991828772</v>
       </c>
       <c r="U38" t="n">
-        <v>4149.594991828772</v>
+        <v>3896.064515102608</v>
       </c>
       <c r="V38" t="n">
-        <v>3864.620807649485</v>
+        <v>3565.001627759037</v>
       </c>
       <c r="W38" t="n">
-        <v>3511.852152379371</v>
+        <v>3212.232972488923</v>
       </c>
       <c r="X38" t="n">
-        <v>3138.386394118291</v>
+        <v>2838.767214227843</v>
       </c>
       <c r="Y38" t="n">
         <v>2748.247062142479</v>
@@ -7248,7 +7248,7 @@
         <v>101.9991914350375</v>
       </c>
       <c r="I39" t="n">
-        <v>82.99189983657546</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J39" t="n">
         <v>176.6691693271927</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>864.5505998824026</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="C40" t="n">
-        <v>695.6144169544957</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="D40" t="n">
-        <v>545.49777754216</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="E40" t="n">
-        <v>397.5846839597668</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="F40" t="n">
-        <v>250.6947364618565</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="G40" t="n">
-        <v>82.99189983657546</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="H40" t="n">
-        <v>82.99189983657546</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="I40" t="n">
-        <v>82.99189983657546</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J40" t="n">
         <v>128.114532283511</v>
@@ -7354,28 +7354,28 @@
         <v>1943.774331492884</v>
       </c>
       <c r="R40" t="n">
-        <v>1943.774331492884</v>
+        <v>1853.943874250412</v>
       </c>
       <c r="S40" t="n">
-        <v>1752.088447319711</v>
+        <v>1662.257990077239</v>
       </c>
       <c r="T40" t="n">
-        <v>1752.088447319711</v>
+        <v>1440.491374646765</v>
       </c>
       <c r="U40" t="n">
-        <v>1462.985580445354</v>
+        <v>1151.388507772408</v>
       </c>
       <c r="V40" t="n">
-        <v>1462.985580445354</v>
+        <v>896.7040195665212</v>
       </c>
       <c r="W40" t="n">
-        <v>1462.985580445354</v>
+        <v>607.2868495295606</v>
       </c>
       <c r="X40" t="n">
-        <v>1266.991643856172</v>
+        <v>379.2972986315433</v>
       </c>
       <c r="Y40" t="n">
-        <v>1046.199064712642</v>
+        <v>158.5047194880132</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2319.650323317826</v>
+        <v>1856.050294572132</v>
       </c>
       <c r="C41" t="n">
-        <v>1950.687806377414</v>
+        <v>1653.104205986181</v>
       </c>
       <c r="D41" t="n">
-        <v>1592.422107770664</v>
+        <v>1294.838507379431</v>
       </c>
       <c r="E41" t="n">
-        <v>1206.633855172419</v>
+        <v>909.0502547811866</v>
       </c>
       <c r="F41" t="n">
-        <v>795.6479503828118</v>
+        <v>498.064349991579</v>
       </c>
       <c r="G41" t="n">
-        <v>380.5755002278082</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="H41" t="n">
-        <v>82.99189983657546</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="I41" t="n">
-        <v>82.99189983657546</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J41" t="n">
-        <v>271.8710307956009</v>
+        <v>271.8710307956008</v>
       </c>
       <c r="K41" t="n">
-        <v>605.6904044854473</v>
+        <v>605.6904044854472</v>
       </c>
       <c r="L41" t="n">
-        <v>1470.209220138802</v>
+        <v>1056.724617733856</v>
       </c>
       <c r="M41" t="n">
-        <v>2003.741124810726</v>
+        <v>2035.274920563684</v>
       </c>
       <c r="N41" t="n">
-        <v>2550.519941869508</v>
+        <v>2944.544726279772</v>
       </c>
       <c r="O41" t="n">
-        <v>3053.492412748845</v>
+        <v>3447.517197159109</v>
       </c>
       <c r="P41" t="n">
-        <v>3567.040467088729</v>
+        <v>3842.291563516287</v>
       </c>
       <c r="Q41" t="n">
-        <v>4025.518669597717</v>
+        <v>4090.577925271969</v>
       </c>
       <c r="R41" t="n">
         <v>4149.594991828772</v>
@@ -7439,22 +7439,22 @@
         <v>4149.594991828772</v>
       </c>
       <c r="T41" t="n">
-        <v>4149.594991828772</v>
+        <v>3943.617244212994</v>
       </c>
       <c r="U41" t="n">
-        <v>4149.594991828772</v>
+        <v>3690.08676748683</v>
       </c>
       <c r="V41" t="n">
-        <v>3822.623908888954</v>
+        <v>3359.023880143259</v>
       </c>
       <c r="W41" t="n">
-        <v>3469.855253618839</v>
+        <v>3006.255224873145</v>
       </c>
       <c r="X41" t="n">
-        <v>3096.38949535776</v>
+        <v>2632.789466612065</v>
       </c>
       <c r="Y41" t="n">
-        <v>2706.250163381948</v>
+        <v>2242.650134636253</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>101.9991914350375</v>
       </c>
       <c r="I42" t="n">
-        <v>82.99189983657546</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J42" t="n">
         <v>176.6691693271927</v>
       </c>
       <c r="K42" t="n">
-        <v>414.9333683075398</v>
+        <v>414.9333683075402</v>
       </c>
       <c r="L42" t="n">
-        <v>781.631528620205</v>
+        <v>781.6315286202055</v>
       </c>
       <c r="M42" t="n">
         <v>1228.907853842521</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.430897396975</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O42" t="n">
         <v>2113.39217681503</v>
       </c>
       <c r="P42" t="n">
-        <v>2423.891768291132</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q42" t="n">
-        <v>2581.533325937732</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R42" t="n">
         <v>2581.388972530248</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2532.35542413626</v>
+        <v>2755.778476095099</v>
       </c>
       <c r="C43" t="n">
-        <v>2532.35542413626</v>
+        <v>2586.842293167192</v>
       </c>
       <c r="D43" t="n">
-        <v>2532.35542413626</v>
+        <v>2436.725653754856</v>
       </c>
       <c r="E43" t="n">
-        <v>2532.35542413626</v>
+        <v>2288.812560172463</v>
       </c>
       <c r="F43" t="n">
-        <v>2532.35542413626</v>
+        <v>2288.812560172463</v>
       </c>
       <c r="G43" t="n">
-        <v>2532.35542413626</v>
+        <v>2288.812560172463</v>
       </c>
       <c r="H43" t="n">
-        <v>2386.138237354118</v>
+        <v>2288.812560172463</v>
       </c>
       <c r="I43" t="n">
-        <v>2288.812560172464</v>
+        <v>2288.812560172463</v>
       </c>
       <c r="J43" t="n">
-        <v>2333.935192619399</v>
+        <v>2333.935192619398</v>
       </c>
       <c r="K43" t="n">
-        <v>2537.922375568275</v>
+        <v>2537.922375568274</v>
       </c>
       <c r="L43" t="n">
-        <v>2854.482174016771</v>
+        <v>2854.48217401677</v>
       </c>
       <c r="M43" t="n">
-        <v>3198.63921961632</v>
+        <v>3198.639219616319</v>
       </c>
       <c r="N43" t="n">
-        <v>3540.047596322185</v>
+        <v>3540.047596322184</v>
       </c>
       <c r="O43" t="n">
-        <v>3839.377195242598</v>
+        <v>3839.377195242597</v>
       </c>
       <c r="P43" t="n">
-        <v>4071.984695676258</v>
+        <v>4071.984695676257</v>
       </c>
       <c r="Q43" t="n">
         <v>4149.594991828772</v>
       </c>
       <c r="R43" t="n">
-        <v>4059.7645345863</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S43" t="n">
-        <v>3868.078650413127</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="T43" t="n">
-        <v>3646.312034982653</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="U43" t="n">
-        <v>3357.209168108296</v>
+        <v>3930.310729209733</v>
       </c>
       <c r="V43" t="n">
-        <v>3102.524679902409</v>
+        <v>3675.626241003846</v>
       </c>
       <c r="W43" t="n">
-        <v>2813.107509865449</v>
+        <v>3386.209070966886</v>
       </c>
       <c r="X43" t="n">
-        <v>2585.117958967431</v>
+        <v>3158.219520068868</v>
       </c>
       <c r="Y43" t="n">
-        <v>2532.35542413626</v>
+        <v>2937.426940925338</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1386.321313417294</v>
+        <v>1386.321313417293</v>
       </c>
       <c r="C44" t="n">
-        <v>1017.358796476882</v>
+        <v>1386.321313417293</v>
       </c>
       <c r="D44" t="n">
-        <v>659.0930978701315</v>
+        <v>1386.321313417293</v>
       </c>
       <c r="E44" t="n">
-        <v>273.3048452718872</v>
+        <v>1219.581835916739</v>
       </c>
       <c r="F44" t="n">
-        <v>273.3048452718872</v>
+        <v>808.595931127132</v>
       </c>
       <c r="G44" t="n">
-        <v>95.93988058089573</v>
+        <v>393.5234809721285</v>
       </c>
       <c r="H44" t="n">
         <v>95.93988058089573</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J44" t="n">
-        <v>160.4664214721853</v>
+        <v>77.96873004866922</v>
       </c>
       <c r="K44" t="n">
-        <v>494.2857951620317</v>
+        <v>411.7881037385156</v>
       </c>
       <c r="L44" t="n">
-        <v>945.3200084104403</v>
+        <v>411.7881037385156</v>
       </c>
       <c r="M44" t="n">
-        <v>945.3200084104403</v>
+        <v>945.3200084104399</v>
       </c>
       <c r="N44" t="n">
         <v>1492.098825469222</v>
@@ -7670,28 +7670,28 @@
         <v>2638.132024461419</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U44" t="n">
         <v>2443.618614292058</v>
       </c>
       <c r="V44" t="n">
-        <v>2112.555726948488</v>
+        <v>2112.555726948487</v>
       </c>
       <c r="W44" t="n">
         <v>1759.787071678373</v>
       </c>
       <c r="X44" t="n">
-        <v>1386.321313417294</v>
+        <v>1386.321313417293</v>
       </c>
       <c r="Y44" t="n">
-        <v>1386.321313417294</v>
+        <v>1386.321313417293</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>72.95027341882603</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J45" t="n">
         <v>147.6202513109817</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>981.7188686483338</v>
+        <v>1079.044545829988</v>
       </c>
       <c r="C46" t="n">
-        <v>812.7826857204269</v>
+        <v>910.1083629020816</v>
       </c>
       <c r="D46" t="n">
-        <v>662.6660463080912</v>
+        <v>759.9917234897458</v>
       </c>
       <c r="E46" t="n">
-        <v>514.752952725698</v>
+        <v>612.0786299073527</v>
       </c>
       <c r="F46" t="n">
-        <v>367.8630052277877</v>
+        <v>465.1886824094423</v>
       </c>
       <c r="G46" t="n">
-        <v>200.1601686025066</v>
+        <v>297.4858457841613</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>151.2686590020191</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J46" t="n">
         <v>99.06561426729996</v>
@@ -7828,28 +7828,28 @@
         <v>1914.725413476673</v>
       </c>
       <c r="R46" t="n">
-        <v>1914.725413476673</v>
+        <v>1824.894956234201</v>
       </c>
       <c r="S46" t="n">
-        <v>1914.725413476673</v>
+        <v>1633.209072061027</v>
       </c>
       <c r="T46" t="n">
-        <v>1914.725413476673</v>
+        <v>1411.442456630553</v>
       </c>
       <c r="U46" t="n">
-        <v>1625.622546602317</v>
+        <v>1122.339589756197</v>
       </c>
       <c r="V46" t="n">
-        <v>1625.622546602317</v>
+        <v>1122.339589756197</v>
       </c>
       <c r="W46" t="n">
-        <v>1612.149463520121</v>
+        <v>1122.339589756197</v>
       </c>
       <c r="X46" t="n">
-        <v>1384.159912622104</v>
+        <v>1122.339589756197</v>
       </c>
       <c r="Y46" t="n">
-        <v>1163.367333478574</v>
+        <v>1122.339589756197</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>312.2066704284447</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>115.66174497523</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>317.5146261106144</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.917311333789257e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>76.45227440777342</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8.917311333789257e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>395.1460246798104</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.917311333789257e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>374.1693948021956</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>315.1679217109327</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>112.4557332846293</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>366.1525137952591</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,19 +10823,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>366.1525137952583</v>
       </c>
       <c r="O38" t="n">
-        <v>73.85942016647641</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11063,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>366.1525137952583</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>119.9734222047536</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>262.3760751415344</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>126.4919521192246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.9698866949904</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>274.9183408758541</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>262.3760751415354</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>113.790898776169</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,16 +23735,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>4.185375452083264</v>
       </c>
       <c r="U17" t="n">
-        <v>77.43728678753638</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>111.9979090721361</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>83.32522828944209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>142.2354048423652</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>48.93987327667941</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>92.48912964370528</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270147</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>83.01406815846428</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>45.85255379167398</v>
       </c>
       <c r="W31" t="n">
-        <v>83.32522828944232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>88.71226382522437</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25126,7 +25126,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>142.2354048423651</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>315.1209556320177</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25214,13 +25214,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>260.4877513019263</v>
       </c>
     </row>
     <row r="36">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>113.790898776169</v>
+        <v>86.53361595400958</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25363,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25445,10 +25445,10 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>45.62781613264031</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>296.6229880915433</v>
       </c>
     </row>
     <row r="39">
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>31.67565816574711</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>164.3562640709168</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -25679,13 +25679,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>4.050886359714468</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>69.12041821276469</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.3497438692357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,22 +25865,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>216.8582873467136</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>235.3304106093719</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>136.969886694991</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>273.1846460852173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1035587.355872948</v>
+        <v>1013196.450060425</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1013196.450060425</v>
+        <v>973517.280268177</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>960911.1246076263</v>
+        <v>960911.1246076265</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>960911.1246076265</v>
+        <v>960911.1246076263</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>960911.1246076263</v>
+        <v>960911.1246076265</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893979.2271939272</v>
+        <v>893979.2271939268</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893979.2271939273</v>
+        <v>893979.227193927</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893979.2271939272</v>
+        <v>893979.2271939269</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>749194.8071183537</v>
+        <v>749194.8071183536</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
         <v>392146.6638165588</v>
       </c>
       <c r="F2" t="n">
+        <v>392146.6638165587</v>
+      </c>
+      <c r="G2" t="n">
         <v>392146.6638165588</v>
-      </c>
-      <c r="G2" t="n">
-        <v>392146.6638165587</v>
       </c>
       <c r="H2" t="n">
         <v>456644.0549200308</v>
       </c>
       <c r="I2" t="n">
-        <v>456644.0549200306</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="J2" t="n">
-        <v>456644.0549200306</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="K2" t="n">
         <v>456644.0549200307</v>
@@ -26344,16 +26344,16 @@
         <v>456644.0549200309</v>
       </c>
       <c r="M2" t="n">
+        <v>428736.7714047456</v>
+      </c>
+      <c r="N2" t="n">
         <v>428736.7714047457</v>
       </c>
-      <c r="N2" t="n">
-        <v>428736.7714047458</v>
-      </c>
       <c r="O2" t="n">
-        <v>428736.7714047458</v>
+        <v>428736.7714047456</v>
       </c>
       <c r="P2" t="n">
-        <v>364239.3803012737</v>
+        <v>364239.3803012735</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513057</v>
       </c>
       <c r="E3" t="n">
-        <v>445640.2295734512</v>
+        <v>149914.8602001173</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>97970.74401294846</v>
+        <v>97970.74401294843</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005333</v>
       </c>
       <c r="G4" t="n">
-        <v>5356.477108136412</v>
+        <v>5500.795347005333</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="M4" t="n">
-        <v>18055.21317142416</v>
+        <v>18583.58934587793</v>
       </c>
       <c r="N4" t="n">
-        <v>18055.21317142416</v>
+        <v>18583.58934587793</v>
       </c>
       <c r="O4" t="n">
-        <v>18055.21317142415</v>
+        <v>18583.58934587792</v>
       </c>
       <c r="P4" t="n">
-        <v>5282.197331409225</v>
+        <v>5426.515570278142</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="F5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>86830.97594873124</v>
+        <v>86830.97594873123</v>
       </c>
       <c r="N5" t="n">
-        <v>86830.97594873124</v>
+        <v>86830.97594873123</v>
       </c>
       <c r="O5" t="n">
-        <v>86830.97594873124</v>
+        <v>86830.97594873123</v>
       </c>
       <c r="P5" t="n">
-        <v>64753.79825641087</v>
+        <v>64753.79825641086</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408554.4938464788</v>
+        <v>-410650.3550690244</v>
       </c>
       <c r="C6" t="n">
-        <v>181413.3853680658</v>
+        <v>11823.60880320141</v>
       </c>
       <c r="D6" t="n">
-        <v>24947.34301182162</v>
+        <v>-60342.81027985332</v>
       </c>
       <c r="E6" t="n">
-        <v>-133156.383426422</v>
+        <v>162424.6677080429</v>
       </c>
       <c r="F6" t="n">
-        <v>312483.8461470292</v>
+        <v>312339.5279081602</v>
       </c>
       <c r="G6" t="n">
-        <v>312483.8461470291</v>
+        <v>312339.5279081602</v>
       </c>
       <c r="H6" t="n">
-        <v>234549.2505511719</v>
+        <v>233727.953300473</v>
       </c>
       <c r="I6" t="n">
-        <v>332519.9945641202</v>
+        <v>331698.6973134215</v>
       </c>
       <c r="J6" t="n">
-        <v>156096.7753715274</v>
+        <v>155275.4781208284</v>
       </c>
       <c r="K6" t="n">
-        <v>332519.9945641203</v>
+        <v>331698.6973134213</v>
       </c>
       <c r="L6" t="n">
-        <v>332519.9945641205</v>
+        <v>331698.6973134215</v>
       </c>
       <c r="M6" t="n">
-        <v>323850.5822845903</v>
+        <v>323322.2061101365</v>
       </c>
       <c r="N6" t="n">
-        <v>323850.5822845903</v>
+        <v>323322.2061101365</v>
       </c>
       <c r="O6" t="n">
-        <v>323850.5822845903</v>
+        <v>323322.2061101365</v>
       </c>
       <c r="P6" t="n">
-        <v>294203.3847134536</v>
+        <v>294059.0664745845</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,13 +26796,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
         <v>1194.51293060493</v>
@@ -26829,7 +26829,7 @@
         <v>1037.398747957193</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599692</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.209655395264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477369</v>
+        <v>157.114182647737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>363.1114752026376</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477369</v>
+        <v>157.114182647737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>363.1114752026376</v>
+        <v>363.1114752026375</v>
       </c>
     </row>
   </sheetData>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.9569981522694</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>150.5984080194839</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.75884232099571</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>157.4983735401875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>11.78595076373398</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>203.3160728394883</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6983327287244</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.8109041160603</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>43.60808604372431</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>193.2435893630077</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>106.9206060361444</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>6.167284451052723</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233474</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33275,7 +33275,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34366,16 +34366,16 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>288.6453385184246</v>
+        <v>205.3143370805295</v>
       </c>
       <c r="K44" t="n">
         <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
         <v>781.7148990095022</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116794</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M8" t="n">
-        <v>500.7919359086545</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>311.8015692372487</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>579.4384179598712</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013291</v>
@@ -36121,22 +36121,22 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>654.7059126660148</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200624</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037194</v>
@@ -36361,7 +36361,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200632</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
         <v>988.434649323059</v>
@@ -36370,7 +36370,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>267.2392753764859</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>850.7361390721424</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M29" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509644</v>
@@ -36850,7 +36850,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36923,7 +36923,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
@@ -37081,10 +37081,10 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>882.2223956904146</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>713.9299079303044</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037194</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>449.6470198400297</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>874.2055146834781</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37543,19 +37543,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>918.4543492081696</v>
       </c>
       <c r="O38" t="n">
-        <v>581.9124210546954</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
@@ -37783,25 +37783,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>918.4543492081696</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>518.7354084241252</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>107.5994339917383</v>
+        <v>24.26843255384322</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
